--- a/Base/Teams/Patriots/Distributions.xlsx
+++ b/Base/Teams/Patriots/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.2948580117578703, 0.9967620738242231, 0.4865431364288162, 3.348837501894833)</t>
-  </si>
-  <si>
-    <t>NIG(2.3150485860588823, 1.979083069978778, 1.7540193860214686, 5.699392693818661)</t>
-  </si>
-  <si>
-    <t>NIG(0.5283550147352343, 0.39894901533210747, 1.9474367684568128, 2.451977058918583)</t>
-  </si>
-  <si>
-    <t>NIG(1.9407378078713275, 1.434516332394396, 3.580877689231411, 6.922116597834545)</t>
+    <t>NIG(1.0028008308424856, 0.7637242239583764, 0.7988413655512033, 3.254324199005086)</t>
+  </si>
+  <si>
+    <t>JSU(-1.7029846029909228, 1.311318935784597, 0.7922755769002008, 4.595416393169003)</t>
+  </si>
+  <si>
+    <t>NIG(0.5212442334468417, 0.3961643278268716, 1.9343484911620235, 2.371216361870894)</t>
+  </si>
+  <si>
+    <t>NIG(1.6901160107927429, 1.2138031937497542, 4.13471465823856, 6.734669880619813)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Patriots/Distributions.xlsx
+++ b/Base/Teams/Patriots/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.0028008308424856, 0.7637242239583764, 0.7988413655512033, 3.254324199005086)</t>
-  </si>
-  <si>
-    <t>JSU(-1.7029846029909228, 1.311318935784597, 0.7922755769002008, 4.595416393169003)</t>
-  </si>
-  <si>
-    <t>NIG(0.5212442334468417, 0.3961643278268716, 1.9343484911620235, 2.371216361870894)</t>
-  </si>
-  <si>
-    <t>NIG(1.6901160107927429, 1.2138031937497542, 4.13471465823856, 6.734669880619813)</t>
+    <t>NIG(1.0636703576051187, 0.8198896503734165, 0.695308674575605, 3.287717118945786)</t>
+  </si>
+  <si>
+    <t>JSU(-1.6693635800731657, 1.3310910126843543, 1.1454092494056438, 4.700573310041975)</t>
+  </si>
+  <si>
+    <t>JSU(-0.785754844881186, 0.9472243134278244, 1.2660135120402045, 2.077152262094618)</t>
+  </si>
+  <si>
+    <t>NIG(1.7532180036021794, 1.2282916145317602, 4.2803936983605215, 6.854969068638511)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Patriots/Distributions.xlsx
+++ b/Base/Teams/Patriots/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.0636703576051187, 0.8198896503734165, 0.695308674575605, 3.287717118945786)</t>
-  </si>
-  <si>
-    <t>JSU(-1.6693635800731657, 1.3310910126843543, 1.1454092494056438, 4.700573310041975)</t>
-  </si>
-  <si>
-    <t>JSU(-0.785754844881186, 0.9472243134278244, 1.2660135120402045, 2.077152262094618)</t>
-  </si>
-  <si>
-    <t>NIG(1.7532180036021794, 1.2282916145317602, 4.2803936983605215, 6.854969068638511)</t>
+    <t>NIG(1.182963722358093, 0.8953231288065846, 0.719691949601007, 3.4631591416293097)</t>
+  </si>
+  <si>
+    <t>JSU(-1.580640448169203, 1.3100630563247049, 1.645029330324268, 4.694478264812261)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7804870574961984, 0.9545331454447986, 1.332053922049273, 2.0885774360867373)</t>
+  </si>
+  <si>
+    <t>NIG(1.5871760264598676, 1.112123289307422, 4.437885078956225, 6.712673246740936)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Patriots/Distributions.xlsx
+++ b/Base/Teams/Patriots/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.182963722358093, 0.8953231288065846, 0.719691949601007, 3.4631591416293097)</t>
-  </si>
-  <si>
-    <t>JSU(-1.580640448169203, 1.3100630563247049, 1.645029330324268, 4.694478264812261)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7804870574961984, 0.9545331454447986, 1.332053922049273, 2.0885774360867373)</t>
-  </si>
-  <si>
-    <t>NIG(1.5871760264598676, 1.112123289307422, 4.437885078956225, 6.712673246740936)</t>
+    <t>NIG(1.2465046429701743, 0.9497271180948426, 0.673579337833506, 3.449424014741931)</t>
+  </si>
+  <si>
+    <t>NIG(2.063581660045853, 1.7491551439786457, 2.5470528684004297, 5.439514132098472)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8355090684099471, 0.9675259925565459, 1.2698004682309927, 2.0989894594779432)</t>
+  </si>
+  <si>
+    <t>NIG(1.7232664840852303, 1.2635152656124875, 3.8771863875590498, 6.68973254240208)</t>
   </si>
 </sst>
 </file>
